--- a/Offline/BusinessManagement/Ops/FacultyDetails/FacultyList.xlsx
+++ b/Offline/BusinessManagement/Ops/FacultyDetails/FacultyList.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\FacultyDetails\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DBA9D7-0FEF-4DD3-9973-791007BBF02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,64 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>SlNo</t>
+  </si>
+  <si>
+    <t>Faculty Name</t>
+  </si>
+  <si>
+    <t>Mobile No</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Subjects</t>
+  </si>
+  <si>
+    <t>Avishek Adhikari</t>
+  </si>
+  <si>
+    <t>Mathematics,Physics &amp; Chemistry</t>
+  </si>
+  <si>
+    <t>avishekadhikari101@gmail.com
+@gmail.com</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -46,13 +104,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -330,13 +400,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" customWidth="1"/>
+    <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>7439284197</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{C3DAA24A-B7C8-4CE0-8CB5-3B07EF135D8A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Offline/BusinessManagement/Ops/FacultyDetails/FacultyList.xlsx
+++ b/Offline/BusinessManagement/Ops/FacultyDetails/FacultyList.xlsx
@@ -1,31 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\FacultyDetails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38DBA9D7-0FEF-4DD3-9973-791007BBF02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BFE113-6277-4A1F-B2DB-F866353C9AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>SlNo</t>
   </si>
@@ -56,6 +65,24 @@
   </si>
   <si>
     <t>Active</t>
+  </si>
+  <si>
+    <t>Rumjhum Bannerjee</t>
+  </si>
+  <si>
+    <t>87770 26734</t>
+  </si>
+  <si>
+    <t>Chemistry</t>
+  </si>
+  <si>
+    <t>Not Selected</t>
+  </si>
+  <si>
+    <t>Barik Sir</t>
+  </si>
+  <si>
+    <t>90386 99208</t>
   </si>
 </sst>
 </file>
@@ -401,19 +428,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.21875" customWidth="1"/>
     <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -456,7 +484,46 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{15149113-8795-404A-9291-B105968B753B}">
+      <formula1>"Active,Inactive,Not Selected"</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{C3DAA24A-B7C8-4CE0-8CB5-3B07EF135D8A}"/>
   </hyperlinks>

--- a/Offline/BusinessManagement/Ops/FacultyDetails/FacultyList.xlsx
+++ b/Offline/BusinessManagement/Ops/FacultyDetails/FacultyList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\FacultyDetails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BFE113-6277-4A1F-B2DB-F866353C9AF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6666F0-42C9-479C-BAED-AB205DF3ED96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>SlNo</t>
   </si>
@@ -83,6 +83,18 @@
   </si>
   <si>
     <t>90386 99208</t>
+  </si>
+  <si>
+    <t>Bappaditya</t>
+  </si>
+  <si>
+    <t>IOT &amp; Robotics</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>93398 18158</t>
   </si>
 </sst>
 </file>
@@ -428,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -518,6 +530,23 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576" xr:uid="{15149113-8795-404A-9291-B105968B753B}">

--- a/Offline/BusinessManagement/Ops/FacultyDetails/FacultyList.xlsx
+++ b/Offline/BusinessManagement/Ops/FacultyDetails/FacultyList.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\FacultyDetails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6666F0-42C9-479C-BAED-AB205DF3ED96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904B0DFA-9BA5-4EA2-BE0E-357F797FE90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Faculty" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>SlNo</t>
   </si>
@@ -95,6 +95,30 @@
   </si>
   <si>
     <t>93398 18158</t>
+  </si>
+  <si>
+    <t>Sayan Basak</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Bank Name</t>
+  </si>
+  <si>
+    <t>Bank A/C No</t>
+  </si>
+  <si>
+    <t>IFSC Code</t>
+  </si>
+  <si>
+    <t>Bank Of India</t>
+  </si>
+  <si>
+    <t>402910110001569</t>
+  </si>
+  <si>
+    <t>BKID0004029</t>
   </si>
 </sst>
 </file>
@@ -147,7 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,6 +183,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -440,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -454,9 +480,12 @@
     <col min="4" max="4" width="27.21875" customWidth="1"/>
     <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -475,8 +504,17 @@
       <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -496,7 +534,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -513,7 +551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -530,7 +568,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -545,6 +583,29 @@
       </c>
       <c r="F5" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Offline/BusinessManagement/Ops/FacultyDetails/FacultyList.xlsx
+++ b/Offline/BusinessManagement/Ops/FacultyDetails/FacultyList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Anodiam\Docs\Offline\BusinessManagement\Ops\FacultyDetails\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904B0DFA-9BA5-4EA2-BE0E-357F797FE90E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C6FA78-FDBF-4391-8053-8F62A20252EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>SlNo</t>
   </si>
@@ -119,6 +119,45 @@
   </si>
   <si>
     <t>BKID0004029</t>
+  </si>
+  <si>
+    <t>70035 97510</t>
+  </si>
+  <si>
+    <t>anodiam.sb@gmail.com</t>
+  </si>
+  <si>
+    <t>Anupam Sen</t>
+  </si>
+  <si>
+    <t>10415829829</t>
+  </si>
+  <si>
+    <t>SBIN0001486</t>
+  </si>
+  <si>
+    <t>State Bank Of India</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Kasba</t>
+  </si>
+  <si>
+    <t>Branch Address</t>
+  </si>
+  <si>
+    <t>250, B B CHATTERJEE ROAD, KASBA, KOLKATA - 700042</t>
+  </si>
+  <si>
+    <t>98303 04429</t>
+  </si>
+  <si>
+    <t>Economics</t>
+  </si>
+  <si>
+    <t>College Street</t>
   </si>
 </sst>
 </file>
@@ -171,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -185,6 +224,7 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -466,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,12 +520,14 @@
     <col min="4" max="4" width="27.21875" customWidth="1"/>
     <col min="5" max="5" width="28.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.109375" style="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="46.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -513,8 +555,14 @@
       <c r="I1" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -534,7 +582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -551,7 +599,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -568,7 +616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -585,13 +633,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>29</v>
+      </c>
       <c r="E6" t="s">
         <v>21</v>
       </c>
@@ -606,6 +660,41 @@
       </c>
       <c r="I6" s="5" t="s">
         <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -616,6 +705,7 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{C3DAA24A-B7C8-4CE0-8CB5-3B07EF135D8A}"/>
+    <hyperlink ref="D6" r:id="rId2" xr:uid="{06CAC38B-C94C-4466-9FCD-88F3E5256812}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
